--- a/data/xlsx/values_newOf.xlsx
+++ b/data/xlsx/values_newOf.xlsx
@@ -393,730 +393,730 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="B2">
-        <v>192.1695714633472</v>
+        <v>192.8371584610393</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>44952</v>
+        <v>44955</v>
       </c>
       <c r="B3">
-        <v>192.4458826633658</v>
+        <v>193.2264562828009</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>44953</v>
+        <v>44956</v>
       </c>
       <c r="B4">
-        <v>192.7713500241415</v>
+        <v>193.561669236442</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>44954</v>
+        <v>44957</v>
       </c>
       <c r="B5">
-        <v>193.1637156889018</v>
+        <v>193.8425314988061</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>44955</v>
+        <v>44958</v>
       </c>
       <c r="B6">
-        <v>193.5670338458418</v>
+        <v>194.1167431072033</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>44956</v>
+        <v>44959</v>
       </c>
       <c r="B7">
-        <v>193.9216661020501</v>
+        <v>194.4046544430785</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>44957</v>
+        <v>44960</v>
       </c>
       <c r="B8">
-        <v>194.2308664236613</v>
+        <v>194.6975240995554</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>44958</v>
+        <v>44961</v>
       </c>
       <c r="B9">
-        <v>194.5349505846193</v>
+        <v>195.0118808067416</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>44959</v>
+        <v>44962</v>
       </c>
       <c r="B10">
-        <v>194.849952896451</v>
+        <v>195.384773963815</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>44960</v>
+        <v>44963</v>
       </c>
       <c r="B11">
-        <v>195.1707598862509</v>
+        <v>195.8003305042033</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>44961</v>
+        <v>44964</v>
       </c>
       <c r="B12">
-        <v>195.5173021799485</v>
+        <v>196.1719134232387</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>44962</v>
+        <v>44965</v>
       </c>
       <c r="B13">
-        <v>195.9236666097547</v>
+        <v>196.4364474451568</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>44963</v>
+        <v>44966</v>
       </c>
       <c r="B14">
-        <v>196.3697970979556</v>
+        <v>196.6401881097249</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>44964</v>
+        <v>44967</v>
       </c>
       <c r="B15">
-        <v>196.7712386837902</v>
+        <v>196.8879794679821</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>44965</v>
+        <v>44968</v>
       </c>
       <c r="B16">
-        <v>197.0718544230708</v>
+        <v>197.2174239340617</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>44966</v>
+        <v>44969</v>
       </c>
       <c r="B17">
-        <v>197.3212700680516</v>
+        <v>197.5664777342386</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>44967</v>
+        <v>44970</v>
       </c>
       <c r="B18">
-        <v>197.6204409676303</v>
+        <v>197.8679266524273</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>44968</v>
+        <v>44971</v>
       </c>
       <c r="B19">
-        <v>198.0006626285702</v>
+        <v>198.1295083839271</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>44969</v>
+        <v>44972</v>
       </c>
       <c r="B20">
-        <v>198.3975327933361</v>
+        <v>198.3974683548005</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>44970</v>
+        <v>44973</v>
       </c>
       <c r="B21">
-        <v>198.7462952609393</v>
+        <v>198.6791184674429</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>44971</v>
+        <v>44974</v>
       </c>
       <c r="B22">
-        <v>199.0580292731734</v>
+        <v>198.9446778643243</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>44972</v>
+        <v>44975</v>
       </c>
       <c r="B23">
-        <v>199.3794384839356</v>
+        <v>199.190550073343</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>44973</v>
+        <v>44976</v>
       </c>
       <c r="B24">
-        <v>199.7149248991711</v>
+        <v>199.4531822072561</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>44974</v>
+        <v>44977</v>
       </c>
       <c r="B25">
-        <v>200.0311540264123</v>
+        <v>199.7518102269971</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>44975</v>
+        <v>44978</v>
       </c>
       <c r="B26">
-        <v>200.32403119459</v>
+        <v>200.0546901282185</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>44976</v>
+        <v>44979</v>
       </c>
       <c r="B27">
-        <v>200.6336941400444</v>
+        <v>200.3226488958768</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>44977</v>
+        <v>44980</v>
       </c>
       <c r="B28">
-        <v>200.9838703243807</v>
+        <v>200.5607194632225</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>44978</v>
+        <v>44981</v>
       </c>
       <c r="B29">
-        <v>201.3432919804794</v>
+        <v>200.801328156727</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>44979</v>
+        <v>44982</v>
       </c>
       <c r="B30">
-        <v>201.6686781494536</v>
+        <v>201.053653508832</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>44980</v>
+        <v>44983</v>
       </c>
       <c r="B31">
-        <v>201.9607536431379</v>
+        <v>201.3005351531805</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>44981</v>
+        <v>44984</v>
       </c>
       <c r="B32">
-        <v>202.250870831585</v>
+        <v>201.539471624126</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>44982</v>
+        <v>44985</v>
       </c>
       <c r="B33">
-        <v>202.548754933679</v>
+        <v>201.7937731231748</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>44983</v>
+        <v>44986</v>
       </c>
       <c r="B34">
-        <v>202.836683608091</v>
+        <v>202.0752650224888</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>44984</v>
+        <v>44987</v>
       </c>
       <c r="B35">
-        <v>203.1120753605232</v>
+        <v>202.3620033398342</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>44985</v>
+        <v>44988</v>
       </c>
       <c r="B36">
-        <v>203.4019779179682</v>
+        <v>202.6276209857561</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>44986</v>
+        <v>44989</v>
       </c>
       <c r="B37">
-        <v>203.7238843038197</v>
+        <v>202.873816956808</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>44987</v>
+        <v>44990</v>
       </c>
       <c r="B38">
-        <v>204.05708411898</v>
+        <v>203.1174905903243</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>44988</v>
+        <v>44991</v>
       </c>
       <c r="B39">
-        <v>204.3701564458872</v>
+        <v>203.3633215928075</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>44989</v>
+        <v>44992</v>
       </c>
       <c r="B40">
-        <v>204.6596002394842</v>
+        <v>203.612331205755</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>44990</v>
+        <v>44993</v>
       </c>
       <c r="B41">
-        <v>204.9426338948018</v>
+        <v>203.8851003970839</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>44991</v>
+        <v>44994</v>
       </c>
       <c r="B42">
-        <v>205.2271470249232</v>
+        <v>204.2044661016843</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>44992</v>
+        <v>44995</v>
       </c>
       <c r="B43">
-        <v>205.5145983773805</v>
+        <v>204.5533679549549</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>44993</v>
+        <v>44996</v>
       </c>
       <c r="B44">
-        <v>205.824315669729</v>
+        <v>204.8802698082834</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>44994</v>
+        <v>44997</v>
       </c>
       <c r="B45">
-        <v>206.1816725628654</v>
+        <v>205.1592164681603</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>44995</v>
+        <v>44998</v>
       </c>
       <c r="B46">
-        <v>206.5745791377761</v>
+        <v>205.4197776054421</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>44996</v>
+        <v>44999</v>
       </c>
       <c r="B47">
-        <v>206.9502898607419</v>
+        <v>205.6986881787267</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>44997</v>
+        <v>45000</v>
       </c>
       <c r="B48">
-        <v>207.27347876299</v>
+        <v>205.9843667349576</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>44998</v>
+        <v>45001</v>
       </c>
       <c r="B49">
-        <v>207.5671935369624</v>
+        <v>206.2396813797008</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>44999</v>
+        <v>45002</v>
       </c>
       <c r="B50">
-        <v>207.8739201994462</v>
+        <v>206.4675900036226</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45000</v>
+        <v>45003</v>
       </c>
       <c r="B51">
-        <v>208.1924873810755</v>
+        <v>206.7158105090701</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45001</v>
+        <v>45004</v>
       </c>
       <c r="B52">
-        <v>208.4854609910379</v>
+        <v>207.0111894484542</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45002</v>
+        <v>45005</v>
       </c>
       <c r="B53">
-        <v>208.7448477630371</v>
+        <v>207.3247521024261</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45003</v>
+        <v>45006</v>
       </c>
       <c r="B54">
-        <v>209.0140690152759</v>
+        <v>207.6196737441035</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45004</v>
+        <v>45007</v>
       </c>
       <c r="B55">
-        <v>209.3313360584969</v>
+        <v>207.9044135276799</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45005</v>
+        <v>45008</v>
       </c>
       <c r="B56">
-        <v>209.6794313468502</v>
+        <v>208.2096477320613</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45006</v>
+        <v>45009</v>
       </c>
       <c r="B57">
-        <v>210.0140774678745</v>
+        <v>208.5335246961484</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45007</v>
+        <v>45010</v>
       </c>
       <c r="B58">
-        <v>210.3222961947249</v>
+        <v>208.8481131478693</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45008</v>
+        <v>45011</v>
       </c>
       <c r="B59">
-        <v>210.6244194984779</v>
+        <v>209.1517982819863</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45009</v>
+        <v>45012</v>
       </c>
       <c r="B60">
-        <v>210.9302741071847</v>
+        <v>209.4701396292438</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45010</v>
+        <v>45013</v>
       </c>
       <c r="B61">
-        <v>211.2280675850027</v>
+        <v>209.7961535217028</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45011</v>
+        <v>45014</v>
       </c>
       <c r="B62">
-        <v>211.5169227850335</v>
+        <v>210.0777790138865</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45012</v>
+        <v>45015</v>
       </c>
       <c r="B63">
-        <v>211.8134839756296</v>
+        <v>210.2979850537696</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45013</v>
+        <v>45016</v>
       </c>
       <c r="B64">
-        <v>212.1120524462233</v>
+        <v>210.5314582436104</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45014</v>
+        <v>45017</v>
       </c>
       <c r="B65">
-        <v>212.3734316767826</v>
+        <v>210.867240842701</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45015</v>
+        <v>45018</v>
       </c>
       <c r="B66">
-        <v>212.5846369600314</v>
+        <v>211.2835724651655</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45016</v>
+        <v>45019</v>
       </c>
       <c r="B67">
-        <v>212.8053914302775</v>
+        <v>211.6576222077668</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45017</v>
+        <v>45020</v>
       </c>
       <c r="B68">
-        <v>213.1097245949468</v>
+        <v>211.9175712697699</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45018</v>
+        <v>45021</v>
       </c>
       <c r="B69">
-        <v>213.4844815010327</v>
+        <v>212.1355381755413</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45019</v>
+        <v>45022</v>
       </c>
       <c r="B70">
-        <v>213.8334554769048</v>
+        <v>212.4303960589133</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45020</v>
+        <v>45023</v>
       </c>
       <c r="B71">
-        <v>214.0999800728763</v>
+        <v>212.8124014285698</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45021</v>
+        <v>45024</v>
       </c>
       <c r="B72">
-        <v>214.3439669279441</v>
+        <v>213.1806036779917</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45022</v>
+        <v>45025</v>
       </c>
       <c r="B73">
-        <v>214.6604511728274</v>
+        <v>213.4659068167621</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45023</v>
+        <v>45026</v>
       </c>
       <c r="B74">
-        <v>215.0485993574472</v>
+        <v>213.7147534428785</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45024</v>
+        <v>45027</v>
       </c>
       <c r="B75">
-        <v>215.4134584738215</v>
+        <v>214.0091268142388</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45025</v>
+        <v>45028</v>
       </c>
       <c r="B76">
-        <v>215.6956576956827</v>
+        <v>214.3548972137645</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45026</v>
+        <v>45029</v>
       </c>
       <c r="B77">
-        <v>215.9457302940269</v>
+        <v>214.6962683933713</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45027</v>
+        <v>45030</v>
       </c>
       <c r="B78">
-        <v>216.2457214090448</v>
+        <v>215.0131464723868</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45028</v>
+        <v>45031</v>
       </c>
       <c r="B79">
-        <v>216.5992057940314</v>
+        <v>215.3441234039293</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45029</v>
+        <v>45032</v>
       </c>
       <c r="B80">
-        <v>216.9437360382</v>
+        <v>215.708925243925</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45030</v>
+        <v>45033</v>
       </c>
       <c r="B81">
-        <v>217.2524280642559</v>
+        <v>216.0627755885914</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45031</v>
+        <v>45034</v>
       </c>
       <c r="B82">
-        <v>217.5684509589429</v>
+        <v>216.3596132866713</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45032</v>
+        <v>45035</v>
       </c>
       <c r="B83">
-        <v>217.9292148361863</v>
+        <v>216.628534473132</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45033</v>
+        <v>45036</v>
       </c>
       <c r="B84">
-        <v>218.3029985748487</v>
+        <v>216.9452065716166</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45034</v>
+        <v>45037</v>
       </c>
       <c r="B85">
-        <v>218.633913167914</v>
+        <v>217.3346588511924</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45035</v>
+        <v>45038</v>
       </c>
       <c r="B86">
-        <v>218.9253230463146</v>
+        <v>217.7383539351033</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45036</v>
+        <v>45039</v>
       </c>
       <c r="B87">
-        <v>219.2382350835396</v>
+        <v>218.0840245045873</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45037</v>
+        <v>45040</v>
       </c>
       <c r="B88">
-        <v>219.6081096055114</v>
+        <v>218.3617343440341</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45038</v>
+        <v>45041</v>
       </c>
       <c r="B89">
-        <v>219.9960553315581</v>
+        <v>218.6196213097941</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45039</v>
+        <v>45042</v>
       </c>
       <c r="B90">
-        <v>220.3348585705477</v>
+        <v>218.9056529415757</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45040</v>
+        <v>45043</v>
       </c>
       <c r="B91">
-        <v>220.6035659564686</v>
+        <v>219.2298353462887</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45041</v>
+        <v>45044</v>
       </c>
       <c r="B92">
-        <v>220.8423705077374</v>
+        <v>219.5687460561101</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/values_newOf.xlsx
+++ b/data/xlsx/values_newOf.xlsx
@@ -393,730 +393,730 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>44954</v>
+        <v>44957</v>
       </c>
       <c r="B2">
-        <v>192.8371584610393</v>
+        <v>193.8784096327616</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>44955</v>
+        <v>44958</v>
       </c>
       <c r="B3">
-        <v>193.2264562828009</v>
+        <v>194.2341998477785</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>44956</v>
+        <v>44959</v>
       </c>
       <c r="B4">
-        <v>193.561669236442</v>
+        <v>194.5530881818544</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>44957</v>
+        <v>44960</v>
       </c>
       <c r="B5">
-        <v>193.8425314988061</v>
+        <v>194.8046656088719</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>44958</v>
+        <v>44961</v>
       </c>
       <c r="B6">
-        <v>194.1167431072033</v>
+        <v>195.124991936023</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>44959</v>
+        <v>44962</v>
       </c>
       <c r="B7">
-        <v>194.4046544430785</v>
+        <v>195.5649598153981</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>44960</v>
+        <v>44963</v>
       </c>
       <c r="B8">
-        <v>194.6975240995554</v>
+        <v>195.9820584914101</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>44961</v>
+        <v>44964</v>
       </c>
       <c r="B9">
-        <v>195.0118808067416</v>
+        <v>196.284305369606</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>44962</v>
+        <v>44965</v>
       </c>
       <c r="B10">
-        <v>195.384773963815</v>
+        <v>196.5499282526969</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>44963</v>
+        <v>44966</v>
       </c>
       <c r="B11">
-        <v>195.8003305042033</v>
+        <v>196.8407706067308</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>44964</v>
+        <v>44967</v>
       </c>
       <c r="B12">
-        <v>196.1719134232387</v>
+        <v>197.1242352711458</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>44965</v>
+        <v>44968</v>
       </c>
       <c r="B13">
-        <v>196.4364474451568</v>
+        <v>197.4119518822851</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>44966</v>
+        <v>44969</v>
       </c>
       <c r="B14">
-        <v>196.6401881097249</v>
+        <v>197.7579425469042</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>44967</v>
+        <v>44970</v>
       </c>
       <c r="B15">
-        <v>196.8879794679821</v>
+        <v>198.1139046867976</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>44968</v>
+        <v>44971</v>
       </c>
       <c r="B16">
-        <v>197.2174239340617</v>
+        <v>198.3835079438992</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>44969</v>
+        <v>44972</v>
       </c>
       <c r="B17">
-        <v>197.5664777342386</v>
+        <v>198.5954127948877</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>44970</v>
+        <v>44973</v>
       </c>
       <c r="B18">
-        <v>197.8679266524273</v>
+        <v>198.8461745594848</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>44971</v>
+        <v>44974</v>
       </c>
       <c r="B19">
-        <v>198.1295083839271</v>
+        <v>199.1277273715639</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>44972</v>
+        <v>44975</v>
       </c>
       <c r="B20">
-        <v>198.3974683548005</v>
+        <v>199.3765811570508</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>44973</v>
+        <v>44976</v>
       </c>
       <c r="B21">
-        <v>198.6791184674429</v>
+        <v>199.6191531584932</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>44974</v>
+        <v>44977</v>
       </c>
       <c r="B22">
-        <v>198.9446778643243</v>
+        <v>199.9117791434965</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>44975</v>
+        <v>44978</v>
       </c>
       <c r="B23">
-        <v>199.190550073343</v>
+        <v>200.2144167749263</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>44976</v>
+        <v>44979</v>
       </c>
       <c r="B24">
-        <v>199.4531822072561</v>
+        <v>200.4616271200426</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>44977</v>
+        <v>44980</v>
       </c>
       <c r="B25">
-        <v>199.7518102269971</v>
+        <v>200.6790554241802</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>44978</v>
+        <v>44981</v>
       </c>
       <c r="B26">
-        <v>200.0546901282185</v>
+        <v>200.9158830541882</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>44979</v>
+        <v>44982</v>
       </c>
       <c r="B27">
-        <v>200.3226488958768</v>
+        <v>201.1520838770779</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>44980</v>
+        <v>44983</v>
       </c>
       <c r="B28">
-        <v>200.5607194632225</v>
+        <v>201.3707838364477</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>44981</v>
+        <v>44984</v>
       </c>
       <c r="B29">
-        <v>200.801328156727</v>
+        <v>201.6211679681045</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>44982</v>
+        <v>44985</v>
       </c>
       <c r="B30">
-        <v>201.053653508832</v>
+        <v>201.9191379725907</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>44983</v>
+        <v>44986</v>
       </c>
       <c r="B31">
-        <v>201.3005351531805</v>
+        <v>202.1934518310837</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>44984</v>
+        <v>44987</v>
       </c>
       <c r="B32">
-        <v>201.539471624126</v>
+        <v>202.4114160729898</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>44985</v>
+        <v>44988</v>
       </c>
       <c r="B33">
-        <v>201.7937731231748</v>
+        <v>202.6394518684538</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>44986</v>
+        <v>44989</v>
       </c>
       <c r="B34">
-        <v>202.0752650224888</v>
+        <v>202.9064100491981</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>44987</v>
+        <v>44990</v>
       </c>
       <c r="B35">
-        <v>202.3620033398342</v>
+        <v>203.1431339855748</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>44988</v>
+        <v>44991</v>
       </c>
       <c r="B36">
-        <v>202.6276209857561</v>
+        <v>203.3305816695476</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>44989</v>
+        <v>44992</v>
       </c>
       <c r="B37">
-        <v>202.873816956808</v>
+        <v>203.5598838542836</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>44990</v>
+        <v>44993</v>
       </c>
       <c r="B38">
-        <v>203.1174905903243</v>
+        <v>203.874997293036</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>44991</v>
+        <v>44994</v>
       </c>
       <c r="B39">
-        <v>203.3633215928075</v>
+        <v>204.2082577494085</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>44992</v>
+        <v>44995</v>
       </c>
       <c r="B40">
-        <v>203.612331205755</v>
+        <v>204.522176079032</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>44993</v>
+        <v>44996</v>
       </c>
       <c r="B41">
-        <v>203.8851003970839</v>
+        <v>204.8476190741006</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>44994</v>
+        <v>44997</v>
       </c>
       <c r="B42">
-        <v>204.2044661016843</v>
+        <v>205.1574595256844</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>44995</v>
+        <v>44998</v>
       </c>
       <c r="B43">
-        <v>204.5533679549549</v>
+        <v>205.392633304958</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>44996</v>
+        <v>44999</v>
       </c>
       <c r="B44">
-        <v>204.8802698082834</v>
+        <v>205.6120388954444</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>44997</v>
+        <v>45000</v>
       </c>
       <c r="B45">
-        <v>205.1592164681603</v>
+        <v>205.9093164260073</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>44998</v>
+        <v>45001</v>
       </c>
       <c r="B46">
-        <v>205.4197776054421</v>
+        <v>206.2197028664679</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>44999</v>
+        <v>45002</v>
       </c>
       <c r="B47">
-        <v>205.6986881787267</v>
+        <v>206.4377003067099</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45000</v>
+        <v>45003</v>
       </c>
       <c r="B48">
-        <v>205.9843667349576</v>
+        <v>206.645456375987</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45001</v>
+        <v>45004</v>
       </c>
       <c r="B49">
-        <v>206.2396813797008</v>
+        <v>206.9700639997127</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45002</v>
+        <v>45005</v>
       </c>
       <c r="B50">
-        <v>206.4675900036226</v>
+        <v>207.3288175279199</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45003</v>
+        <v>45006</v>
       </c>
       <c r="B51">
-        <v>206.7158105090701</v>
+        <v>207.585976545914</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45004</v>
+        <v>45007</v>
       </c>
       <c r="B52">
-        <v>207.0111894484542</v>
+        <v>207.8172548795879</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45005</v>
+        <v>45008</v>
       </c>
       <c r="B53">
-        <v>207.3247521024261</v>
+        <v>208.1468934860258</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45006</v>
+        <v>45009</v>
       </c>
       <c r="B54">
-        <v>207.6196737441035</v>
+        <v>208.4983138391484</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45007</v>
+        <v>45010</v>
       </c>
       <c r="B55">
-        <v>207.9044135276799</v>
+        <v>208.770204213838</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45008</v>
+        <v>45011</v>
       </c>
       <c r="B56">
-        <v>208.2096477320613</v>
+        <v>209.055695747555</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45009</v>
+        <v>45012</v>
       </c>
       <c r="B57">
-        <v>208.5335246961484</v>
+        <v>209.4380420243541</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45010</v>
+        <v>45013</v>
       </c>
       <c r="B58">
-        <v>208.8481131478693</v>
+        <v>209.7898324866957</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45011</v>
+        <v>45014</v>
       </c>
       <c r="B59">
-        <v>209.1517982819863</v>
+        <v>209.9975550815918</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45012</v>
+        <v>45015</v>
       </c>
       <c r="B60">
-        <v>209.4701396292438</v>
+        <v>210.1659325841487</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45013</v>
+        <v>45016</v>
       </c>
       <c r="B61">
-        <v>209.7961535217028</v>
+        <v>210.4283334220297</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45014</v>
+        <v>45017</v>
       </c>
       <c r="B62">
-        <v>210.0777790138865</v>
+        <v>210.7692138964173</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45015</v>
+        <v>45018</v>
       </c>
       <c r="B63">
-        <v>210.2979850537696</v>
+        <v>211.1352863315254</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45016</v>
+        <v>45019</v>
       </c>
       <c r="B64">
-        <v>210.5314582436104</v>
+        <v>211.5047851162245</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45017</v>
+        <v>45020</v>
       </c>
       <c r="B65">
-        <v>210.867240842701</v>
+        <v>211.8140626308934</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45018</v>
+        <v>45021</v>
       </c>
       <c r="B66">
-        <v>211.2835724651655</v>
+        <v>212.0325112919401</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45019</v>
+        <v>45022</v>
       </c>
       <c r="B67">
-        <v>211.6576222077668</v>
+        <v>212.2778644298792</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45020</v>
+        <v>45023</v>
       </c>
       <c r="B68">
-        <v>211.9175712697699</v>
+        <v>212.6478756534688</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45021</v>
+        <v>45024</v>
       </c>
       <c r="B69">
-        <v>212.1355381755413</v>
+        <v>213.0326665781833</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45022</v>
+        <v>45025</v>
       </c>
       <c r="B70">
-        <v>212.4303960589133</v>
+        <v>213.2988156180039</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45023</v>
+        <v>45026</v>
       </c>
       <c r="B71">
-        <v>212.8124014285698</v>
+        <v>213.5200892746383</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45024</v>
+        <v>45027</v>
       </c>
       <c r="B72">
-        <v>213.1806036779917</v>
+        <v>213.8279411846218</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45025</v>
+        <v>45028</v>
       </c>
       <c r="B73">
-        <v>213.4659068167621</v>
+        <v>214.1904069454685</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45026</v>
+        <v>45029</v>
       </c>
       <c r="B74">
-        <v>213.7147534428785</v>
+        <v>214.5155957593856</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45027</v>
+        <v>45030</v>
       </c>
       <c r="B75">
-        <v>214.0091268142388</v>
+        <v>214.8208018959949</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45028</v>
+        <v>45031</v>
       </c>
       <c r="B76">
-        <v>214.3548972137645</v>
+        <v>215.1600504931505</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45029</v>
+        <v>45032</v>
       </c>
       <c r="B77">
-        <v>214.6962683933713</v>
+        <v>215.5175854719921</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45030</v>
+        <v>45033</v>
       </c>
       <c r="B78">
-        <v>215.0131464723868</v>
+        <v>215.8575026008798</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45031</v>
+        <v>45034</v>
       </c>
       <c r="B79">
-        <v>215.3441234039293</v>
+        <v>216.1719561329895</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45032</v>
+        <v>45035</v>
       </c>
       <c r="B80">
-        <v>215.708925243925</v>
+        <v>216.4637468984811</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45033</v>
+        <v>45036</v>
       </c>
       <c r="B81">
-        <v>216.0627755885914</v>
+        <v>216.7686323547497</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45034</v>
+        <v>45037</v>
       </c>
       <c r="B82">
-        <v>216.3596132866713</v>
+        <v>217.1465779390305</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45035</v>
+        <v>45038</v>
       </c>
       <c r="B83">
-        <v>216.628534473132</v>
+        <v>217.5732549747217</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45036</v>
+        <v>45039</v>
       </c>
       <c r="B84">
-        <v>216.9452065716166</v>
+        <v>217.9332158797055</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45037</v>
+        <v>45040</v>
       </c>
       <c r="B85">
-        <v>217.3346588511924</v>
+        <v>218.1873510622083</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45038</v>
+        <v>45041</v>
       </c>
       <c r="B86">
-        <v>217.7383539351033</v>
+        <v>218.431354891127</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45039</v>
+        <v>45042</v>
       </c>
       <c r="B87">
-        <v>218.0840245045873</v>
+        <v>218.7415449035187</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45040</v>
+        <v>45043</v>
       </c>
       <c r="B88">
-        <v>218.3617343440341</v>
+        <v>219.0895535476895</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45041</v>
+        <v>45044</v>
       </c>
       <c r="B89">
-        <v>218.6196213097941</v>
+        <v>219.4346453752376</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45042</v>
+        <v>45045</v>
       </c>
       <c r="B90">
-        <v>218.9056529415757</v>
+        <v>219.7723821727174</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45043</v>
+        <v>45046</v>
       </c>
       <c r="B91">
-        <v>219.2298353462887</v>
+        <v>220.0829438109697</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45044</v>
+        <v>45047</v>
       </c>
       <c r="B92">
-        <v>219.5687460561101</v>
+        <v>220.3468178930068</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/values_newOf.xlsx
+++ b/data/xlsx/values_newOf.xlsx
@@ -393,730 +393,730 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>44957</v>
+        <v>44962</v>
       </c>
       <c r="B2">
-        <v>193.8784096327616</v>
+        <v>195.6584302617519</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>44958</v>
+        <v>44963</v>
       </c>
       <c r="B3">
-        <v>194.2341998477785</v>
+        <v>196.1149086572115</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="B4">
-        <v>194.5530881818544</v>
+        <v>196.5238387893664</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>44960</v>
+        <v>44965</v>
       </c>
       <c r="B5">
-        <v>194.8046656088719</v>
+        <v>196.8116911173554</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>44961</v>
+        <v>44966</v>
       </c>
       <c r="B6">
-        <v>195.124991936023</v>
+        <v>197.0567774718443</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>44962</v>
+        <v>44967</v>
       </c>
       <c r="B7">
-        <v>195.5649598153981</v>
+        <v>197.3561599397053</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>44963</v>
+        <v>44968</v>
       </c>
       <c r="B8">
-        <v>195.9820584914101</v>
+        <v>197.7080354299828</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>44964</v>
+        <v>44969</v>
       </c>
       <c r="B9">
-        <v>196.284305369606</v>
+        <v>198.0625487038403</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>44965</v>
+        <v>44970</v>
       </c>
       <c r="B10">
-        <v>196.5499282526969</v>
+        <v>198.4047908984801</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>44966</v>
+        <v>44971</v>
       </c>
       <c r="B11">
-        <v>196.8407706067308</v>
+        <v>198.738076714629</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>44967</v>
+        <v>44972</v>
       </c>
       <c r="B12">
-        <v>197.1242352711458</v>
+        <v>199.0453136196389</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>44968</v>
+        <v>44973</v>
       </c>
       <c r="B13">
-        <v>197.4119518822851</v>
+        <v>199.3156356096989</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>44969</v>
+        <v>44974</v>
       </c>
       <c r="B14">
-        <v>197.7579425469042</v>
+        <v>199.57133920702</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>44970</v>
+        <v>44975</v>
       </c>
       <c r="B15">
-        <v>198.1139046867976</v>
+        <v>199.8358318354367</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>44971</v>
+        <v>44976</v>
       </c>
       <c r="B16">
-        <v>198.3835079438992</v>
+        <v>200.1080700882885</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>44972</v>
+        <v>44977</v>
       </c>
       <c r="B17">
-        <v>198.5954127948877</v>
+        <v>200.3878760450577</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>44973</v>
+        <v>44978</v>
       </c>
       <c r="B18">
-        <v>198.8461745594848</v>
+        <v>200.6859159077689</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>44974</v>
+        <v>44979</v>
       </c>
       <c r="B19">
-        <v>199.1277273715639</v>
+        <v>200.9894677159925</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>44975</v>
+        <v>44980</v>
       </c>
       <c r="B20">
-        <v>199.3765811570508</v>
+        <v>201.2617743693547</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>44976</v>
+        <v>44981</v>
       </c>
       <c r="B21">
-        <v>199.6191531584932</v>
+        <v>201.4972186540923</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>44977</v>
+        <v>44982</v>
       </c>
       <c r="B22">
-        <v>199.9117791434965</v>
+        <v>201.73550293505</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>44978</v>
+        <v>44983</v>
       </c>
       <c r="B23">
-        <v>200.2144167749263</v>
+        <v>202.0008960560774</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>44979</v>
+        <v>44984</v>
       </c>
       <c r="B24">
-        <v>200.4616271200426</v>
+        <v>202.2715713373019</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="B25">
-        <v>200.6790554241802</v>
+        <v>202.5302573279334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>44981</v>
+        <v>44986</v>
       </c>
       <c r="B26">
-        <v>200.9158830541882</v>
+        <v>202.7966067419941</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>44982</v>
+        <v>44987</v>
       </c>
       <c r="B27">
-        <v>201.1520838770779</v>
+        <v>203.0814051886814</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>44983</v>
+        <v>44988</v>
       </c>
       <c r="B28">
-        <v>201.3707838364477</v>
+        <v>203.3559042391055</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>44984</v>
+        <v>44989</v>
       </c>
       <c r="B29">
-        <v>201.6211679681045</v>
+        <v>203.599142813391</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>44985</v>
+        <v>44990</v>
       </c>
       <c r="B30">
-        <v>201.9191379725907</v>
+        <v>203.8326157971554</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>44986</v>
+        <v>44991</v>
       </c>
       <c r="B31">
-        <v>202.1934518310837</v>
+        <v>204.077461480535</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>44987</v>
+        <v>44992</v>
       </c>
       <c r="B32">
-        <v>202.4114160729898</v>
+        <v>204.3240375701504</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>44988</v>
+        <v>44993</v>
       </c>
       <c r="B33">
-        <v>202.6394518684538</v>
+        <v>204.5765028837581</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>44989</v>
+        <v>44994</v>
       </c>
       <c r="B34">
-        <v>202.9064100491981</v>
+        <v>204.8729936659791</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>44990</v>
+        <v>44995</v>
       </c>
       <c r="B35">
-        <v>203.1431339855748</v>
+        <v>205.2167776440988</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>44991</v>
+        <v>44996</v>
       </c>
       <c r="B36">
-        <v>203.3305816695476</v>
+        <v>205.5413049939664</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>44992</v>
+        <v>44997</v>
       </c>
       <c r="B37">
-        <v>203.5598838542836</v>
+        <v>205.7993236723212</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>44993</v>
+        <v>44998</v>
       </c>
       <c r="B38">
-        <v>203.874997293036</v>
+        <v>206.0362757619006</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>44994</v>
+        <v>44999</v>
       </c>
       <c r="B39">
-        <v>204.2082577494085</v>
+        <v>206.3101468056568</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>44995</v>
+        <v>45000</v>
       </c>
       <c r="B40">
-        <v>204.522176079032</v>
+        <v>206.5873058608902</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>44996</v>
+        <v>45001</v>
       </c>
       <c r="B41">
-        <v>204.8476190741006</v>
+        <v>206.8002535467755</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>44997</v>
+        <v>45002</v>
       </c>
       <c r="B42">
-        <v>205.1574595256844</v>
+        <v>206.9731773431953</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>44998</v>
+        <v>45003</v>
       </c>
       <c r="B43">
-        <v>205.392633304958</v>
+        <v>207.1952237223632</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>44999</v>
+        <v>45004</v>
       </c>
       <c r="B44">
-        <v>205.6120388954444</v>
+        <v>207.4835742952265</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45000</v>
+        <v>45005</v>
       </c>
       <c r="B45">
-        <v>205.9093164260073</v>
+        <v>207.7686063423516</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45001</v>
+        <v>45006</v>
       </c>
       <c r="B46">
-        <v>206.2197028664679</v>
+        <v>208.0168167416052</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45002</v>
+        <v>45007</v>
       </c>
       <c r="B47">
-        <v>206.4377003067099</v>
+        <v>208.2742169959854</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45003</v>
+        <v>45008</v>
       </c>
       <c r="B48">
-        <v>206.645456375987</v>
+        <v>208.5697934614415</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45004</v>
+        <v>45009</v>
       </c>
       <c r="B49">
-        <v>206.9700639997127</v>
+        <v>208.86566457636</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45005</v>
+        <v>45010</v>
       </c>
       <c r="B50">
-        <v>207.3288175279199</v>
+        <v>209.1370391069763</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45006</v>
+        <v>45011</v>
       </c>
       <c r="B51">
-        <v>207.585976545914</v>
+        <v>209.4213266800829</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45007</v>
+        <v>45012</v>
       </c>
       <c r="B52">
-        <v>207.8172548795879</v>
+        <v>209.7401855774208</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45008</v>
+        <v>45013</v>
       </c>
       <c r="B53">
-        <v>208.1468934860258</v>
+        <v>210.0392639681406</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45009</v>
+        <v>45014</v>
       </c>
       <c r="B54">
-        <v>208.4983138391484</v>
+        <v>210.2639142690087</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45010</v>
+        <v>45015</v>
       </c>
       <c r="B55">
-        <v>208.770204213838</v>
+        <v>210.4501977460963</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45011</v>
+        <v>45016</v>
       </c>
       <c r="B56">
-        <v>209.055695747555</v>
+        <v>210.6844306450445</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45012</v>
+        <v>45017</v>
       </c>
       <c r="B57">
-        <v>209.4380420243541</v>
+        <v>210.9981744088573</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45013</v>
+        <v>45018</v>
       </c>
       <c r="B58">
-        <v>209.7898324866957</v>
+        <v>211.3464656259305</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45014</v>
+        <v>45019</v>
       </c>
       <c r="B59">
-        <v>209.9975550815918</v>
+        <v>211.6710951764368</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45015</v>
+        <v>45020</v>
       </c>
       <c r="B60">
-        <v>210.1659325841487</v>
+        <v>211.9542066406789</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45016</v>
+        <v>45021</v>
       </c>
       <c r="B61">
-        <v>210.4283334220297</v>
+        <v>212.2263088904049</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45017</v>
+        <v>45022</v>
       </c>
       <c r="B62">
-        <v>210.7692138964173</v>
+        <v>212.5389018073713</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45018</v>
+        <v>45023</v>
       </c>
       <c r="B63">
-        <v>211.1352863315254</v>
+        <v>212.9057925315123</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45019</v>
+        <v>45024</v>
       </c>
       <c r="B64">
-        <v>211.5047851162245</v>
+        <v>213.2660918074791</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45020</v>
+        <v>45025</v>
       </c>
       <c r="B65">
-        <v>211.8140626308934</v>
+        <v>213.547463821778</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45021</v>
+        <v>45026</v>
       </c>
       <c r="B66">
-        <v>212.0325112919401</v>
+        <v>213.7734138067321</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45022</v>
+        <v>45027</v>
       </c>
       <c r="B67">
-        <v>212.2778644298792</v>
+        <v>214.0469472973955</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45023</v>
+        <v>45028</v>
       </c>
       <c r="B68">
-        <v>212.6478756534688</v>
+        <v>214.4064216705918</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45024</v>
+        <v>45029</v>
       </c>
       <c r="B69">
-        <v>213.0326665781833</v>
+        <v>214.7711470364007</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45025</v>
+        <v>45030</v>
       </c>
       <c r="B70">
-        <v>213.2988156180039</v>
+        <v>215.0733987552279</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45026</v>
+        <v>45031</v>
       </c>
       <c r="B71">
-        <v>213.5200892746383</v>
+        <v>215.36611995881</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45027</v>
+        <v>45032</v>
       </c>
       <c r="B72">
-        <v>213.8279411846218</v>
+        <v>215.7255952611891</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45028</v>
+        <v>45033</v>
       </c>
       <c r="B73">
-        <v>214.1904069454685</v>
+        <v>216.1121143588112</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45029</v>
+        <v>45034</v>
       </c>
       <c r="B74">
-        <v>214.5155957593856</v>
+        <v>216.4278541071386</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45030</v>
+        <v>45035</v>
       </c>
       <c r="B75">
-        <v>214.8208018959949</v>
+        <v>216.679800492676</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45031</v>
+        <v>45036</v>
       </c>
       <c r="B76">
-        <v>215.1600504931505</v>
+        <v>216.9780631431321</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45032</v>
+        <v>45037</v>
       </c>
       <c r="B77">
-        <v>215.5175854719921</v>
+        <v>217.3727814566564</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45033</v>
+        <v>45038</v>
       </c>
       <c r="B78">
-        <v>215.8575026008798</v>
+        <v>217.7871140091098</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45034</v>
+        <v>45039</v>
       </c>
       <c r="B79">
-        <v>216.1719561329895</v>
+        <v>218.1313347197386</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45035</v>
+        <v>45040</v>
       </c>
       <c r="B80">
-        <v>216.4637468984811</v>
+        <v>218.4069912815726</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45036</v>
+        <v>45041</v>
       </c>
       <c r="B81">
-        <v>216.7686323547497</v>
+        <v>218.6718806274024</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45037</v>
+        <v>45042</v>
       </c>
       <c r="B82">
-        <v>217.1465779390305</v>
+        <v>218.9650197462033</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45038</v>
+        <v>45043</v>
       </c>
       <c r="B83">
-        <v>217.5732549747217</v>
+        <v>219.2960304673843</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45039</v>
+        <v>45044</v>
       </c>
       <c r="B84">
-        <v>217.9332158797055</v>
+        <v>219.6575480513841</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45040</v>
+        <v>45045</v>
       </c>
       <c r="B85">
-        <v>218.1873510622083</v>
+        <v>220.0174570907552</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45041</v>
+        <v>45046</v>
       </c>
       <c r="B86">
-        <v>218.431354891127</v>
+        <v>220.3376484430808</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45042</v>
+        <v>45047</v>
       </c>
       <c r="B87">
-        <v>218.7415449035187</v>
+        <v>220.6257755233084</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45043</v>
+        <v>45048</v>
       </c>
       <c r="B88">
-        <v>219.0895535476895</v>
+        <v>220.9371366296917</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45044</v>
+        <v>45049</v>
       </c>
       <c r="B89">
-        <v>219.4346453752376</v>
+        <v>221.3077364133379</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45045</v>
+        <v>45050</v>
       </c>
       <c r="B90">
-        <v>219.7723821727174</v>
+        <v>221.7147773096299</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45046</v>
+        <v>45051</v>
       </c>
       <c r="B91">
-        <v>220.0829438109697</v>
+        <v>222.1134727460029</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45047</v>
+        <v>45052</v>
       </c>
       <c r="B92">
-        <v>220.3468178930068</v>
+        <v>222.4789505043702</v>
       </c>
     </row>
   </sheetData>
